--- a/CACEQUI.xlsx
+++ b/CACEQUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E7DFE9-45E6-42FE-A996-BB14C98BCE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79201B49-F4CC-4DE1-9537-B02DB9A0AFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,20 +22,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1115,7 +1102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1175,36 +1162,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,14 +1206,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,7 +1261,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D22C6D22-7203-4F81-8C5B-019651144694}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8F82E762-2577-40E7-A76F-771701618D8E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1333,10 +1291,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B2AF8C-1A46-4391-843E-5AF0F9CCE749}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB9BE9E-7243-468F-B2E2-AD4CB7562C38}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1332,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCDF059-1C7B-4AB9-A5A6-221D58456644}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D2091A-D17F-4B54-9913-743FCA5B887D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1395,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE947F1-8646-44B7-82B9-DFB826EFA8CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E0DEB9-0C6B-43F7-9331-F218DEF62EAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1414,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4645CE-0378-290B-99D6-5E445D30C6B7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0714ED52-30A9-4CFA-D206-4946D0ED6D21}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1505,7 +1463,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599A5BA8-6ACC-42C4-E7BE-93FE9DB53A7D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D0BBA2-6309-88A9-E21E-1BDB9B6340DC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1524,7 +1482,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91E2D5D-FDD0-D527-2D26-061D8255062C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A1E423-7270-3302-C1FA-3CF9738FEFD9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1555,7 +1513,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8672D5B9-4FC7-A368-41D1-B539C7D5FDA5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2F7E92-674A-E50F-5466-C42F03A789BD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1586,7 +1544,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219FE8EC-74DF-3093-735C-FF7F35CF9C53}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9229361-6C7D-BBC5-F751-30217EC7664F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1629,7 +1587,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{973225D8-2C70-4F30-A279-AB88BD7CD754}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4EF0AF-4E3E-4A61-A4AF-092DC7D114A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1625,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A86426-43BE-4585-A268-302146BBCF7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB59F345-97D7-4BE7-B751-3E3F2E3532CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1710,7 +1668,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7942C71-22AD-4618-A24A-D3A8AAFA377E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD30B7A2-43CE-413F-8296-605032DC20C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C384C28D-91CB-4DBC-8317-FAB7BE749E2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B584ADA-342C-4F6E-95A2-21367978358D}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2035,98 +1993,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="40"/>
-    <col min="6" max="6" width="2" style="40" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="40" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="40"/>
+    <col min="1" max="5" width="12.5703125" style="37"/>
+    <col min="6" max="6" width="2" style="37" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="39"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="39"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="39"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="39"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="39"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="39"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="39"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="39"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="39"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="39"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="39"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="39"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="39"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="39"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="39"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="39"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="39"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="39"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="39"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="39"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="39"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="39"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="39"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="39"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="39"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="39"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="39"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="39"/>
+      <c r="F29" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5362,19 +5320,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5397,46 +5355,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5454,16 +5412,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="9" max="9" width="89" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5497,7 +5455,7 @@
       <c r="J1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5511,10 +5469,10 @@
       <c r="C2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>879.9</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="21">
         <v>87.99</v>
       </c>
       <c r="F2" s="2">
@@ -5532,7 +5490,7 @@
       <c r="J2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="22">
         <v>18637</v>
       </c>
     </row>
@@ -5546,10 +5504,10 @@
       <c r="C3" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>36</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>3.6</v>
       </c>
       <c r="F3" s="2">
@@ -5567,7 +5525,7 @@
       <c r="J3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="22">
         <v>8860</v>
       </c>
     </row>
@@ -5592,54 +5550,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="23" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5650,43 +5609,43 @@
       <c r="B2" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="26">
         <v>45170</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="27">
         <v>830</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="28">
         <v>2717</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="28">
         <v>287</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="29" t="s">
         <v>313</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="29" t="s">
         <v>313</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="30" t="s">
         <v>315</v>
       </c>
     </row>
@@ -5717,25 +5676,24 @@
       <c r="B1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="E1" s="35">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="32">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="35">
         <v>18</v>
       </c>
-      <c r="F1" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="38">
-        <v>18</v>
-      </c>
-      <c r="C2" s="36">
+      <c r="C2" s="33">
         <v>1.190318740907287E-3</v>
       </c>
     </row>

--- a/CACEQUI.xlsx
+++ b/CACEQUI.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79201B49-F4CC-4DE1-9537-B02DB9A0AFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC3E0E7-373D-40CD-82F7-E0AAACDE0139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
@@ -21,13 +21,14 @@
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
+    <sheet name="DGC" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="323">
   <si>
     <t>COMARCA</t>
   </si>
@@ -981,6 +982,21 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-VIG</t>
+  </si>
+  <si>
+    <t>Não responde no Teams</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1007,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1060,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1058,7 +1087,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,6 +1122,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4C7C3"/>
         <bgColor rgb="FFF4C7C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1165,9 +1200,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1256,12 +1291,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{8F82E762-2577-40E7-A76F-771701618D8E}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4B7F8CCA-CCA7-4BA9-A08C-0F90A5E481E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1291,10 +1330,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB9BE9E-7243-468F-B2E2-AD4CB7562C38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4EB48E-BB34-4625-B60C-D4645762B012}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1371,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D2091A-D17F-4B54-9913-743FCA5B887D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6693CEB-34BC-49EE-8567-F63E61D03293}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1434,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E0DEB9-0C6B-43F7-9331-F218DEF62EAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7598E3D1-5FD1-4AF4-BBC0-BBF56431E3D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1453,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0714ED52-30A9-4CFA-D206-4946D0ED6D21}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2890ABF-D24A-0E25-27FC-72286E462778}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1463,7 +1502,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D0BBA2-6309-88A9-E21E-1BDB9B6340DC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC2984F-2D33-C4A0-88FA-99596EB7D509}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1482,7 +1521,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A1E423-7270-3302-C1FA-3CF9738FEFD9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B987A1E-CE15-A835-95E2-BDF3CE8AA87A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1513,7 +1552,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2F7E92-674A-E50F-5466-C42F03A789BD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF20460-B0BC-6DCB-C81F-AA5F7D4D3830}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1544,7 +1583,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9229361-6C7D-BBC5-F751-30217EC7664F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E25A38F-D940-03FF-BCDC-A695C4ABFE58}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1587,7 +1626,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4EF0AF-4E3E-4A61-A4AF-092DC7D114A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82E3019-4B03-4E02-884C-2576A1BCB94E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1664,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB59F345-97D7-4BE7-B751-3E3F2E3532CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9438CA74-48EE-4576-8D92-EBD1F7E125B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1707,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD30B7A2-43CE-413F-8296-605032DC20C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94275E60-1B7E-4C49-B6E5-D6D9EC9E0894}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B584ADA-342C-4F6E-95A2-21367978358D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C7FF81-7241-48C6-ACA2-2F5DFF3D2EEC}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1993,98 +2032,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="39"/>
+    <col min="6" max="6" width="2" style="39" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="39" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5700,4 +5739,55 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/CACEQUI.xlsx
+++ b/CACEQUI.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC3E0E7-373D-40CD-82F7-E0AAACDE0139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE0B22CF-36AA-4DE8-B1C2-8E115D681936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
-    <sheet name="DGC" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="321">
   <si>
     <t>COMARCA</t>
   </si>
@@ -976,12 +975,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1202,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1276,21 +1269,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1300,7 +1278,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4B7F8CCA-CCA7-4BA9-A08C-0F90A5E481E0}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B33BFC4F-2FBA-424A-9426-91546AAE7FEC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,10 +1308,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4EB48E-BB34-4625-B60C-D4645762B012}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A184ADAA-8400-4C6D-8913-2EEECA1D964D}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1349,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6693CEB-34BC-49EE-8567-F63E61D03293}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA199492-BFE3-479E-916C-BDFE00AB3B6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1412,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7598E3D1-5FD1-4AF4-BBC0-BBF56431E3D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926D786F-96B8-49DC-9308-7AB11A538E09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1431,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2890ABF-D24A-0E25-27FC-72286E462778}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245C7FFD-77E0-E1D2-BACA-CB86DCCF883C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1502,7 +1480,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC2984F-2D33-C4A0-88FA-99596EB7D509}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603E0102-50BB-7C84-DDC3-D22CA5706DE2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1521,7 +1499,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B987A1E-CE15-A835-95E2-BDF3CE8AA87A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB99D8F-1532-72EC-67D8-960ED89C4F7B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1552,7 +1530,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF20460-B0BC-6DCB-C81F-AA5F7D4D3830}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8FA6C8-E433-4E8F-5675-5644180B65ED}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1583,7 +1561,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E25A38F-D940-03FF-BCDC-A695C4ABFE58}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7921ACD8-13A1-D004-8CA1-BBD5631AFF15}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1626,7 +1604,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82E3019-4B03-4E02-884C-2576A1BCB94E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71BFB411-2899-4CBF-8010-7ED7B8189A2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1642,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9438CA74-48EE-4576-8D92-EBD1F7E125B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32448772-B259-4B51-A79A-DCF74313B75D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1685,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94275E60-1B7E-4C49-B6E5-D6D9EC9E0894}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788A2CC4-E710-4975-AAB4-D26C44227497}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C7FF81-7241-48C6-ACA2-2F5DFF3D2EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F5F61B-4F84-45B6-8ADD-6CF5E8248056}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2032,98 +2010,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="39"/>
-    <col min="6" max="6" width="2" style="39" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="39" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="39"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="38"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="38"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="38"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="38"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="38"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="38"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="38"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="38"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="38"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="38"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="38"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="38"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="38"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="38"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="38"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="38"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="38"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="38"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="38"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="38"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="38"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="38"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="38"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="38"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="38"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="38"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="38"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="38"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="38"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5695,54 +5673,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="E1" s="32">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="35">
-        <v>18</v>
-      </c>
-      <c r="C2" s="33">
-        <v>1.190318740907287E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5755,36 +5685,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C2" s="32" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B3" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>320</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/CACEQUI.xlsx
+++ b/CACEQUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE0B22CF-36AA-4DE8-B1C2-8E115D681936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B6917C2-D637-49E5-B125-7C0D1D187721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1278,7 +1278,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B33BFC4F-2FBA-424A-9426-91546AAE7FEC}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{A1301C6F-10B6-41F3-BE87-97D7D8F0C523}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1308,10 +1308,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A184ADAA-8400-4C6D-8913-2EEECA1D964D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29056753-B858-4FE2-AB14-DCA08F821B3A}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +1349,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA199492-BFE3-479E-916C-BDFE00AB3B6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51F257F-EF94-4C72-9D16-70D66505E82E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926D786F-96B8-49DC-9308-7AB11A538E09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01056A04-70FF-4E89-B326-12943060CB84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245C7FFD-77E0-E1D2-BACA-CB86DCCF883C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9282A583-B29F-3643-3440-B89D43449A58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1480,7 +1480,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603E0102-50BB-7C84-DDC3-D22CA5706DE2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5569C9C-2B08-5091-AB24-9098AA197FB5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB99D8F-1532-72EC-67D8-960ED89C4F7B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1455DDE2-AF13-8BB9-4090-7D529B3BB788}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1530,7 +1530,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8FA6C8-E433-4E8F-5675-5644180B65ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841D5B21-9EE4-1AF0-4659-A32D32B6E247}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1561,7 +1561,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7921ACD8-13A1-D004-8CA1-BBD5631AFF15}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E78FB57-4C4B-1D72-762D-BBAD8BDD9500}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1604,7 +1604,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71BFB411-2899-4CBF-8010-7ED7B8189A2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95134594-B4F5-4769-B442-C13C5B2BF8C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1642,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32448772-B259-4B51-A79A-DCF74313B75D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D718CC4-397B-4CA8-8B22-17DB53058E2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,50 +1667,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788A2CC4-E710-4975-AAB4-D26C44227497}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1998,7 +1954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F5F61B-4F84-45B6-8ADD-6CF5E8248056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485961ED-CCF2-47BE-A5E3-BE5025E21A1A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
